--- a/Class Demo Files/Excel Ch2b/BansalDikshaTravel.xlsx
+++ b/Class Demo Files/Excel Ch2b/BansalDikshaTravel.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\github\BUS 140\BUS-140\Class Demo Files\Excel Ch2b\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="8790"/>
   </bookViews>
@@ -16,8 +11,9 @@
   </sheets>
   <definedNames>
     <definedName name="Deals">'New Clients'!$A$20:$C$24</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'New Clients'!$D$13</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="37">
   <si>
     <t>Maya's Travel - End-of-Summer Deals</t>
   </si>
@@ -44,36 +40,12 @@
     <t>Down Payment Rate:</t>
   </si>
   <si>
-    <t>Customer ID Number</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
     <t>Package</t>
   </si>
   <si>
-    <t>Flight Needed</t>
-  </si>
-  <si>
-    <t>Package Cost</t>
-  </si>
-  <si>
-    <t>Flight Cost</t>
-  </si>
-  <si>
-    <t>Total Package Cost</t>
-  </si>
-  <si>
-    <t>Down Payment</t>
-  </si>
-  <si>
     <t>Balance</t>
   </si>
   <si>
-    <t>Monthly Payment</t>
-  </si>
-  <si>
     <t>Nelson</t>
   </si>
   <si>
@@ -135,13 +107,50 @@
   </si>
   <si>
     <t>Median Cost:</t>
+  </si>
+  <si>
+    <t>Customer 
+ID Number</t>
+  </si>
+  <si>
+    <t>Last
+ Name</t>
+  </si>
+  <si>
+    <t>Flight
+ Needed</t>
+  </si>
+  <si>
+    <t>Package 
+Cost</t>
+  </si>
+  <si>
+    <t>Flight 
+Cost</t>
+  </si>
+  <si>
+    <t>Total Package 
+Cost</t>
+  </si>
+  <si>
+    <t>Down 
+Payment</t>
+  </si>
+  <si>
+    <t>Monthly
+ Payment</t>
+  </si>
+  <si>
+    <t>Package
+ Cost</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
@@ -195,12 +204,23 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -224,7 +244,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="6" applyNumberFormat="1"/>
@@ -238,18 +258,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="13" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="14" applyFont="1"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="17" applyFont="1"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="7" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="15" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="7" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="17" applyFont="1"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="7" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="18">
     <cellStyle name="3wOifN/WbTHUMFiLTgs/6g9Ozr3TEGvhB0gQf6kN/CE=-~vV1U8Ka/jzyRgYU7x41wCw==" xfId="15"/>
@@ -539,7 +558,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -549,8 +568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,25 +580,25 @@
     <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.42578125" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
     <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
     <col min="10" max="10" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -587,7 +606,7 @@
       </c>
       <c r="B2" s="2">
         <f ca="1">TODAY()</f>
-        <v>42864</v>
+        <v>42866</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -646,36 +665,36 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="D6" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>14</v>
+      <c r="J6" s="14" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -683,248 +702,337 @@
         <v>10034</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="13">
-        <f>VLOOKUP(C7,Deals,2)</f>
+        <v>9</v>
+      </c>
+      <c r="E7" s="10">
+        <f t="shared" ref="E7:E14" si="0">VLOOKUP(C7,Deals,2)</f>
         <v>375</v>
       </c>
-      <c r="F7" s="13">
-        <f>VLOOKUP(C7,Deals,3)</f>
+      <c r="F7" s="10">
+        <f t="shared" ref="F7:F14" si="1">VLOOKUP(C7,Deals,3)</f>
         <v>350</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="11">
         <f>IF(D7="Yes",E7+F7,E7)</f>
         <v>725</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+      <c r="H7" s="13">
+        <f>$B$5*G7</f>
+        <v>72.5</v>
+      </c>
+      <c r="I7" s="11">
+        <f>G7-H7</f>
+        <v>652.5</v>
+      </c>
+      <c r="J7" s="13">
+        <f>-PMT($B$3/12,$B$4,I7)</f>
+        <v>56.008501933458099</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>34211</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="13">
-        <f>VLOOKUP(C8,Deals,2)</f>
+        <v>9</v>
+      </c>
+      <c r="E8" s="10">
+        <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="F8" s="13">
-        <f>VLOOKUP(C8,Deals,3)</f>
+      <c r="F8" s="10">
+        <f t="shared" si="1"/>
         <v>350</v>
       </c>
-      <c r="G8" s="14">
-        <f t="shared" ref="G8:G14" si="0">IF(D8="Yes",E8+F8,E8)</f>
+      <c r="G8" s="11">
+        <f t="shared" ref="G8:G14" si="2">IF(D8="Yes",E8+F8,E8)</f>
         <v>750</v>
       </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
+      <c r="H8" s="13">
+        <f t="shared" ref="H8:H14" si="3">$B$5*G8</f>
+        <v>75</v>
+      </c>
+      <c r="I8" s="11">
+        <f t="shared" ref="I8:I14" si="4">G8-H8</f>
+        <v>675</v>
+      </c>
+      <c r="J8" s="13">
+        <f t="shared" ref="J8:J14" si="5">-PMT($B$3/12,$B$4,I8)</f>
+        <v>57.939829586335961</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>12123</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="13">
-        <f>VLOOKUP(C9,Deals,2)</f>
+        <v>9</v>
+      </c>
+      <c r="E9" s="10">
+        <f t="shared" si="0"/>
         <v>175</v>
       </c>
-      <c r="F9" s="13">
-        <f>VLOOKUP(C9,Deals,3)</f>
+      <c r="F9" s="10">
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="G9" s="14">
-        <f t="shared" si="0"/>
+      <c r="G9" s="11">
+        <f t="shared" si="2"/>
         <v>475</v>
       </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
+      <c r="H9" s="13">
+        <f t="shared" si="3"/>
+        <v>47.5</v>
+      </c>
+      <c r="I9" s="11">
+        <f t="shared" si="4"/>
+        <v>427.5</v>
+      </c>
+      <c r="J9" s="13">
+        <f t="shared" si="5"/>
+        <v>36.695225404679441</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>23901</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="13">
-        <f>VLOOKUP(C10,Deals,2)</f>
-        <v>300</v>
-      </c>
-      <c r="F10" s="13">
-        <f>VLOOKUP(C10,Deals,3)</f>
-        <v>275</v>
-      </c>
-      <c r="G10" s="14">
+        <v>16</v>
+      </c>
+      <c r="E10" s="10">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="F10" s="10">
+        <f t="shared" si="1"/>
+        <v>275</v>
+      </c>
+      <c r="G10" s="11">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+      <c r="H10" s="13">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="I10" s="11">
+        <f t="shared" si="4"/>
+        <v>270</v>
+      </c>
+      <c r="J10" s="13">
+        <f t="shared" si="5"/>
+        <v>23.175931834534385</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>12012</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="13">
-        <f>VLOOKUP(C11,Deals,2)</f>
+        <v>9</v>
+      </c>
+      <c r="E11" s="10">
+        <f t="shared" si="0"/>
         <v>375</v>
       </c>
-      <c r="F11" s="13">
-        <f>VLOOKUP(C11,Deals,3)</f>
+      <c r="F11" s="10">
+        <f t="shared" si="1"/>
         <v>350</v>
       </c>
-      <c r="G11" s="14">
-        <f t="shared" si="0"/>
+      <c r="G11" s="11">
+        <f t="shared" si="2"/>
         <v>725</v>
       </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="H11" s="13">
+        <f t="shared" si="3"/>
+        <v>72.5</v>
+      </c>
+      <c r="I11" s="11">
+        <f t="shared" si="4"/>
+        <v>652.5</v>
+      </c>
+      <c r="J11" s="13">
+        <f t="shared" si="5"/>
+        <v>56.008501933458099</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>20301</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="13">
-        <f>VLOOKUP(C12,Deals,2)</f>
+        <v>9</v>
+      </c>
+      <c r="E12" s="10">
+        <f t="shared" si="0"/>
         <v>175</v>
       </c>
-      <c r="F12" s="13">
-        <f>VLOOKUP(C12,Deals,3)</f>
+      <c r="F12" s="10">
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="G12" s="14">
-        <f t="shared" si="0"/>
+      <c r="G12" s="11">
+        <f t="shared" si="2"/>
         <v>475</v>
       </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="H12" s="13">
+        <f t="shared" si="3"/>
+        <v>47.5</v>
+      </c>
+      <c r="I12" s="11">
+        <f t="shared" si="4"/>
+        <v>427.5</v>
+      </c>
+      <c r="J12" s="13">
+        <f t="shared" si="5"/>
+        <v>36.695225404679441</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>20310</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="13">
-        <f>VLOOKUP(C13,Deals,2)</f>
-        <v>175</v>
-      </c>
-      <c r="F13" s="13">
-        <f>VLOOKUP(C13,Deals,3)</f>
-        <v>250</v>
-      </c>
-      <c r="G13" s="14">
+        <v>16</v>
+      </c>
+      <c r="E13" s="10">
         <f t="shared" si="0"/>
         <v>175</v>
       </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="F13" s="10">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+      <c r="G13" s="11">
+        <f t="shared" si="2"/>
+        <v>175</v>
+      </c>
+      <c r="H13" s="13">
+        <f t="shared" si="3"/>
+        <v>17.5</v>
+      </c>
+      <c r="I13" s="11">
+        <f t="shared" si="4"/>
+        <v>157.5</v>
+      </c>
+      <c r="J13" s="13">
+        <f t="shared" si="5"/>
+        <v>13.519293570145058</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>12314</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="D14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="13">
-        <f>VLOOKUP(C14,Deals,2)</f>
+        <v>9</v>
+      </c>
+      <c r="E14" s="10">
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="F14" s="13">
-        <f>VLOOKUP(C14,Deals,3)</f>
+      <c r="F14" s="10">
+        <f t="shared" si="1"/>
         <v>275</v>
       </c>
-      <c r="G14" s="14">
-        <f t="shared" si="0"/>
+      <c r="G14" s="11">
+        <f t="shared" si="2"/>
         <v>575</v>
       </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>29</v>
-      </c>
+      <c r="H14" s="13">
+        <f t="shared" si="3"/>
+        <v>57.5</v>
+      </c>
+      <c r="I14" s="11">
+        <f t="shared" si="4"/>
+        <v>517.5</v>
+      </c>
+      <c r="J14" s="13">
+        <f t="shared" si="5"/>
+        <v>44.420536016190908</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="15">
+        <f>SUM(E7:E14)</f>
+        <v>2275</v>
+      </c>
+      <c r="F15" s="15">
+        <f t="shared" ref="F15:J15" si="6">SUM(F7:F14)</f>
+        <v>2450</v>
+      </c>
+      <c r="G15" s="15">
+        <f t="shared" si="6"/>
+        <v>4200</v>
+      </c>
+      <c r="H15" s="15">
+        <f t="shared" si="6"/>
+        <v>420</v>
+      </c>
+      <c r="I15" s="15">
+        <f t="shared" si="6"/>
+        <v>3780</v>
+      </c>
+      <c r="J15" s="15">
+        <f t="shared" si="6"/>
+        <v>324.46304568348143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -960,132 +1068,147 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>10</v>
+    <row r="19" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>32</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
+      <c r="F19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
       <c r="J19" s="3"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="10">
+        <v>13</v>
+      </c>
+      <c r="B20" s="9">
         <v>175</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="9">
         <v>300</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
+      <c r="I20" s="3">
+        <f>COUNT(G7:G14)</f>
+        <v>8</v>
+      </c>
       <c r="J20" s="3"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="10">
+        <v>15</v>
+      </c>
+      <c r="B21" s="9">
         <v>300</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="9">
         <v>275</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G21" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="G21" s="11"/>
       <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
+      <c r="I21" s="11">
+        <f>MIN(G7:G14)</f>
+        <v>175</v>
+      </c>
       <c r="J21" s="3"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="10">
+        <v>11</v>
+      </c>
+      <c r="B22" s="9">
         <v>400</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="9">
         <v>350</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G22" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="G22" s="11"/>
       <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
+      <c r="I22" s="11">
+        <f>AVERAGE(G7:G14)</f>
+        <v>525</v>
+      </c>
       <c r="J22" s="3"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="10">
+        <v>8</v>
+      </c>
+      <c r="B23" s="9">
         <v>375</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="9">
         <v>350</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G23" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="G23" s="11"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
+      <c r="I23" s="11">
+        <f>MAX(G7:G14)</f>
+        <v>750</v>
+      </c>
       <c r="J23" s="3"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="10">
+        <v>20</v>
+      </c>
+      <c r="B24" s="9">
         <v>175</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="9">
         <v>250</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G24" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="G24" s="11"/>
       <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
+      <c r="I24" s="11">
+        <f>MEDIAN(G7:G14)</f>
+        <v>525</v>
+      </c>
       <c r="J24" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
-    <mergeCell ref="F19:I19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Class Demo Files/Excel Ch2b/BansalDikshaTravel.xlsx
+++ b/Class Demo Files/Excel Ch2b/BansalDikshaTravel.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <definedNames>
     <definedName name="Deals">'New Clients'!$A$20:$C$24</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'New Clients'!$D$13</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'New Clients'!$E$15:$I$15</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
@@ -204,7 +204,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -219,6 +219,15 @@
         <color indexed="64"/>
       </top>
       <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -244,7 +253,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="6" applyNumberFormat="1"/>
@@ -261,14 +270,16 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="14" applyFont="1"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="17" applyFont="1"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="7" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="15" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="7" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="15" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="2" xfId="17" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="2" xfId="7" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="18">
     <cellStyle name="3wOifN/WbTHUMFiLTgs/6g9Ozr3TEGvhB0gQf6kN/CE=-~vV1U8Ka/jzyRgYU7x41wCw==" xfId="15"/>
@@ -558,7 +569,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -568,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,18 +598,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -666,34 +677,34 @@
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="13" t="s">
         <v>34</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="14" t="s">
+      <c r="J6" s="13" t="s">
         <v>35</v>
       </c>
     </row>
@@ -722,7 +733,7 @@
         <f>IF(D7="Yes",E7+F7,E7)</f>
         <v>725</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="12">
         <f>$B$5*G7</f>
         <v>72.5</v>
       </c>
@@ -730,7 +741,7 @@
         <f>G7-H7</f>
         <v>652.5</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="12">
         <f>-PMT($B$3/12,$B$4,I7)</f>
         <v>56.008501933458099</v>
       </c>
@@ -760,7 +771,7 @@
         <f t="shared" ref="G8:G14" si="2">IF(D8="Yes",E8+F8,E8)</f>
         <v>750</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="12">
         <f t="shared" ref="H8:H14" si="3">$B$5*G8</f>
         <v>75</v>
       </c>
@@ -768,7 +779,7 @@
         <f t="shared" ref="I8:I14" si="4">G8-H8</f>
         <v>675</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="12">
         <f t="shared" ref="J8:J14" si="5">-PMT($B$3/12,$B$4,I8)</f>
         <v>57.939829586335961</v>
       </c>
@@ -798,7 +809,7 @@
         <f t="shared" si="2"/>
         <v>475</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="12">
         <f t="shared" si="3"/>
         <v>47.5</v>
       </c>
@@ -806,7 +817,7 @@
         <f t="shared" si="4"/>
         <v>427.5</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J9" s="12">
         <f t="shared" si="5"/>
         <v>36.695225404679441</v>
       </c>
@@ -836,7 +847,7 @@
         <f t="shared" si="2"/>
         <v>300</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="12">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
@@ -844,7 +855,7 @@
         <f t="shared" si="4"/>
         <v>270</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="12">
         <f t="shared" si="5"/>
         <v>23.175931834534385</v>
       </c>
@@ -874,7 +885,7 @@
         <f t="shared" si="2"/>
         <v>725</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="12">
         <f t="shared" si="3"/>
         <v>72.5</v>
       </c>
@@ -882,7 +893,7 @@
         <f t="shared" si="4"/>
         <v>652.5</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J11" s="12">
         <f t="shared" si="5"/>
         <v>56.008501933458099</v>
       </c>
@@ -912,7 +923,7 @@
         <f t="shared" si="2"/>
         <v>475</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="12">
         <f t="shared" si="3"/>
         <v>47.5</v>
       </c>
@@ -920,7 +931,7 @@
         <f t="shared" si="4"/>
         <v>427.5</v>
       </c>
-      <c r="J12" s="13">
+      <c r="J12" s="12">
         <f t="shared" si="5"/>
         <v>36.695225404679441</v>
       </c>
@@ -950,7 +961,7 @@
         <f t="shared" si="2"/>
         <v>175</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="12">
         <f t="shared" si="3"/>
         <v>17.5</v>
       </c>
@@ -958,7 +969,7 @@
         <f t="shared" si="4"/>
         <v>157.5</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J13" s="12">
         <f t="shared" si="5"/>
         <v>13.519293570145058</v>
       </c>
@@ -976,19 +987,19 @@
       <c r="D14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="16">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="16">
         <f t="shared" si="1"/>
         <v>275</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="17">
         <f t="shared" si="2"/>
         <v>575</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="12">
         <f t="shared" si="3"/>
         <v>57.5</v>
       </c>
@@ -996,7 +1007,7 @@
         <f t="shared" si="4"/>
         <v>517.5</v>
       </c>
-      <c r="J14" s="13">
+      <c r="J14" s="12">
         <f t="shared" si="5"/>
         <v>44.420536016190908</v>
       </c>
@@ -1007,27 +1018,27 @@
       <c r="D15" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="14">
         <f>SUM(E7:E14)</f>
         <v>2275</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="14">
         <f t="shared" ref="F15:J15" si="6">SUM(F7:F14)</f>
         <v>2450</v>
       </c>
-      <c r="G15" s="15">
+      <c r="G15" s="14">
         <f t="shared" si="6"/>
         <v>4200</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H15" s="14">
         <f t="shared" si="6"/>
         <v>420</v>
       </c>
-      <c r="I15" s="15">
+      <c r="I15" s="14">
         <f t="shared" si="6"/>
         <v>3780</v>
       </c>
-      <c r="J15" s="15">
+      <c r="J15" s="14">
         <f t="shared" si="6"/>
         <v>324.46304568348143</v>
       </c>
@@ -1069,13 +1080,13 @@
       <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="13" t="s">
         <v>32</v>
       </c>
       <c r="D19" s="3"/>
@@ -1209,6 +1220,9 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;LDiksha Bansal&amp;C&amp;D&amp;R&amp;T</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
